--- a/logP/results/top_5_mlp_50_rt.xlsx
+++ b/logP/results/top_5_mlp_50_rt.xlsx
@@ -462,17 +462,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.771+/-0.017</t>
+          <t>0.433+/-0.018</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.789+/-0.090</t>
+          <t>0.463+/-0.063</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.791+/-0.097</t>
+          <t>0.461+/-0.064</t>
         </is>
       </c>
     </row>
@@ -487,17 +487,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.878+/-0.010</t>
+          <t>0.658+/-0.014</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.887+/-0.050</t>
+          <t>0.679+/-0.045</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.888+/-0.055</t>
+          <t>0.678+/-0.047</t>
         </is>
       </c>
     </row>
@@ -512,17 +512,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.679+/-0.007</t>
+          <t>0.498+/-0.011</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.684+/-0.029</t>
+          <t>0.512+/-0.027</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.687+/-0.037</t>
+          <t>0.515+/-0.030</t>
         </is>
       </c>
     </row>
@@ -537,17 +537,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.672+/-0.007</t>
+          <t>0.816+/-0.008</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.655+/-0.041</t>
+          <t>0.797+/-0.029</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.651+/-0.055</t>
+          <t>0.796+/-0.037</t>
         </is>
       </c>
     </row>
